--- a/biology/Zoologie/Grenouille-à-queue_des_Rocheuses/Grenouille-à-queue_des_Rocheuses.xlsx
+++ b/biology/Zoologie/Grenouille-à-queue_des_Rocheuses/Grenouille-à-queue_des_Rocheuses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grenouille-%C3%A0-queue_des_Rocheuses</t>
+          <t>Grenouille-à-queue_des_Rocheuses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ascaphus montanus
-Ascaphus montanus, la Grenouille-à-queue des Rocheuses, est une espèce d'amphibiens de la famille des Ascaphidae[1].
+Ascaphus montanus, la Grenouille-à-queue des Rocheuses, est une espèce d'amphibiens de la famille des Ascaphidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grenouille-%C3%A0-queue_des_Rocheuses</t>
+          <t>Grenouille-à-queue_des_Rocheuses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre dans l'ouest de l'Amérique du Nord[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre dans l'ouest de l'Amérique du Nord :
 dans le Sud-Ouest Canada dans l'extrême Sud-Est de la Colombie-Britannique ;
 dans le nord-ouest des États-Unis dans l'ouest du Montana, dans le nord de l'Idaho,  dans le nord-est de l'Oregon et dans l'est du Washington.</t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grenouille-%C3%A0-queue_des_Rocheuses</t>
+          <t>Grenouille-à-queue_des_Rocheuses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mittleman &amp; Myers, 1949 : Geographic variation in the ribbed frog, Ascaphus truei. Proceedings of the Biological Society of Washington, vol. 62, p. 57-68 (texte intégral).</t>
         </is>
